--- a/Maven_project_goldloan/PacketIDList/Book2.xlsx
+++ b/Maven_project_goldloan/PacketIDList/Book2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\git\repository\Maven_project_goldloan\PacketIDList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1DA2B7-01DE-409F-8BEA-304EE9FFB51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC66CD8-9A55-4D74-81BF-578F4CF93948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{51BB718F-FE85-49EE-AA16-06C2BF6A465F}"/>
   </bookViews>
@@ -25,34 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
-  <si>
-    <t>MAG0100000050218</t>
-  </si>
-  <si>
-    <t>MAG0100000050219</t>
-  </si>
-  <si>
-    <t>MAG0100000050220</t>
-  </si>
-  <si>
-    <t>MAG0100000050221</t>
-  </si>
-  <si>
-    <t>MAG0100000050222</t>
-  </si>
-  <si>
-    <t>MAG0100000050223</t>
-  </si>
-  <si>
-    <t>MAG0100000050224</t>
-  </si>
-  <si>
-    <t>MAG0100000050225</t>
-  </si>
-  <si>
-    <t>MAG0100000050226</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>MAG0100000050227</t>
   </si>
@@ -169,6 +142,54 @@
   </si>
   <si>
     <t xml:space="preserve">Packet ID </t>
+  </si>
+  <si>
+    <t>MAG0100000050211</t>
+  </si>
+  <si>
+    <t>MAG0100000050212</t>
+  </si>
+  <si>
+    <t>MAG0100000050213</t>
+  </si>
+  <si>
+    <t>MAG0100000050214</t>
+  </si>
+  <si>
+    <t>MAG0100000050215</t>
+  </si>
+  <si>
+    <t>MAG0100000050216</t>
+  </si>
+  <si>
+    <t>MAG0100000050217</t>
+  </si>
+  <si>
+    <t>MAG0100000050218</t>
+  </si>
+  <si>
+    <t>MAG0100000050219</t>
+  </si>
+  <si>
+    <t>MAG0100000050220</t>
+  </si>
+  <si>
+    <t>MAG0100000050221</t>
+  </si>
+  <si>
+    <t>MAG0100000050222</t>
+  </si>
+  <si>
+    <t>MAG0100000050223</t>
+  </si>
+  <si>
+    <t>MAG0100000050224</t>
+  </si>
+  <si>
+    <t>MAG0100000050225</t>
+  </si>
+  <si>
+    <t>MAG0100000050226</t>
   </si>
   <si>
     <t/>
@@ -524,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9704054-7751-497F-A857-807F26EB8572}">
-  <dimension ref="A1:A934"/>
+  <dimension ref="A1:A940"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A2" sqref="A2:A940"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,5551 +558,5586 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
-        <v>47</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="0">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s" s="0">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s" s="0">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s" s="0">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s" s="0">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s" s="0">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s" s="0">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s" s="0">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s" s="0">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s" s="0">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s" s="0">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s" s="0">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s" s="0">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s" s="0">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s" s="0">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s" s="0">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s" s="0">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s" s="0">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s" s="0">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s" s="0">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s" s="0">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s" s="0">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s" s="0">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s" s="0">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s" s="0">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s" s="0">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s" s="0">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s" s="0">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s" s="0">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s" s="0">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s" s="0">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s" s="0">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s" s="0">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s" s="0">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s" s="0">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s" s="0">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s" s="0">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s" s="0">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s" s="0">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s" s="0">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s" s="0">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="e" s="0">
-        <f t="shared" ref="A50" si="0">#REF!&amp;#REF!</f>
-        <v>#REF!</v>
+      <c r="A50" t="s" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="e" s="0">
-        <f t="shared" ref="A51" si="1">#REF!&amp;#REF!</f>
-        <v>#REF!</v>
+      <c r="A51" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="e" s="0">
-        <f t="shared" ref="A52" si="2">#REF!&amp;#REF!</f>
-        <v>#REF!</v>
+      <c r="A52" t="s" s="0">
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="e" s="0">
-        <f t="shared" ref="A53" si="3">#REF!&amp;#REF!</f>
-        <v>#REF!</v>
+      <c r="A53" t="s" s="0">
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="e" s="0">
-        <f t="shared" ref="A54" si="4">#REF!&amp;#REF!</f>
-        <v>#REF!</v>
+      <c r="A54" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="e" s="0">
-        <f t="shared" ref="A55" si="5">#REF!&amp;#REF!</f>
-        <v>#REF!</v>
+      <c r="A55" t="s" s="0">
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="e" s="0">
-        <f t="shared" ref="A56" si="6">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A56:A119" si="0">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="e" s="0">
-        <f t="shared" ref="A57" si="7">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A57:A120" si="1">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="e" s="0">
-        <f t="shared" ref="A58" si="8">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A58:A121" si="2">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="e" s="0">
-        <f t="shared" ref="A59" si="9">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A59:A122" si="3">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="e" s="0">
-        <f t="shared" ref="A60" si="10">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A60:A123" si="4">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="e" s="0">
-        <f t="shared" ref="A61" si="11">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A61:A124" si="5">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="e" s="0">
-        <f t="shared" ref="A62" si="12">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A62:A125" si="6">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="e" s="0">
-        <f t="shared" ref="A63" si="13">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A63:A126" si="7">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="e" s="0">
-        <f t="shared" ref="A64" si="14">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A64:A127" si="8">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="e" s="0">
-        <f t="shared" ref="A65" si="15">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A65:A128" si="9">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="e" s="0">
-        <f t="shared" ref="A66" si="16">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A66:A129" si="10">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="e" s="0">
-        <f t="shared" ref="A67" si="17">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A67:A130" si="11">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="e" s="0">
-        <f t="shared" ref="A68" si="18">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A68:A131" si="12">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="e" s="0">
-        <f t="shared" ref="A69" si="19">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A69:A132" si="13">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="e" s="0">
-        <f t="shared" ref="A70" si="20">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A70:A133" si="14">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="e" s="0">
-        <f t="shared" ref="A71" si="21">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A71:A134" si="15">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="e" s="0">
-        <f t="shared" ref="A72" si="22">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A72:A135" si="16">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="e" s="0">
-        <f t="shared" ref="A73" si="23">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A73:A136" si="17">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="e" s="0">
-        <f t="shared" ref="A74" si="24">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A74:A137" si="18">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="e" s="0">
-        <f t="shared" ref="A75" si="25">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A75:A138" si="19">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="e" s="0">
-        <f t="shared" ref="A76" si="26">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A76:A139" si="20">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="e" s="0">
-        <f t="shared" ref="A77" si="27">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A77:A140" si="21">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="e" s="0">
-        <f t="shared" ref="A78" si="28">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A78:A141" si="22">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="e" s="0">
-        <f t="shared" ref="A79" si="29">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A79:A142" si="23">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="e" s="0">
-        <f t="shared" ref="A80" si="30">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A80:A143" si="24">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="e" s="0">
-        <f t="shared" ref="A81" si="31">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A81:A144" si="25">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="e" s="0">
-        <f t="shared" ref="A82" si="32">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A82:A145" si="26">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="e" s="0">
-        <f t="shared" ref="A83" si="33">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A83:A146" si="27">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="e" s="0">
-        <f t="shared" ref="A84" si="34">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A84:A147" si="28">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="e" s="0">
-        <f t="shared" ref="A85" si="35">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A85:A148" si="29">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="e" s="0">
-        <f t="shared" ref="A86" si="36">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A86:A149" si="30">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="e" s="0">
-        <f t="shared" ref="A87" si="37">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A87:A150" si="31">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="e" s="0">
-        <f t="shared" ref="A88" si="38">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A88:A151" si="32">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="e" s="0">
-        <f t="shared" ref="A89" si="39">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A89:A152" si="33">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="e" s="0">
-        <f t="shared" ref="A90" si="40">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A90:A153" si="34">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="e" s="0">
-        <f t="shared" ref="A91" si="41">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A91:A154" si="35">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="e" s="0">
-        <f t="shared" ref="A92" si="42">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A92:A155" si="36">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="e" s="0">
-        <f t="shared" ref="A93" si="43">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A93:A156" si="37">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="e" s="0">
-        <f t="shared" ref="A94" si="44">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A94:A157" si="38">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="e" s="0">
-        <f t="shared" ref="A95" si="45">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A95:A158" si="39">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="e" s="0">
-        <f t="shared" ref="A96" si="46">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A96:A159" si="40">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="e" s="0">
-        <f t="shared" ref="A97" si="47">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A97:A160" si="41">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="e" s="0">
-        <f t="shared" ref="A98" si="48">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A98:A161" si="42">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="e" s="0">
-        <f t="shared" ref="A99" si="49">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A99:A162" si="43">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="e" s="0">
-        <f t="shared" ref="A100" si="50">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A100:A163" si="44">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="e" s="0">
-        <f t="shared" ref="A101" si="51">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A101:A164" si="45">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="e" s="0">
-        <f t="shared" ref="A102" si="52">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A102:A165" si="46">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="e" s="0">
-        <f t="shared" ref="A103" si="53">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A103:A166" si="47">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="e" s="0">
-        <f t="shared" ref="A104" si="54">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A104:A167" si="48">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="e" s="0">
-        <f t="shared" ref="A105" si="55">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A105:A168" si="49">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="e" s="0">
-        <f t="shared" ref="A106" si="56">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A106:A169" si="50">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="e" s="0">
-        <f t="shared" ref="A107" si="57">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A107:A170" si="51">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="e" s="0">
-        <f t="shared" ref="A108" si="58">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A108:A171" si="52">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="e" s="0">
-        <f t="shared" ref="A109" si="59">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A109:A172" si="53">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="e" s="0">
-        <f t="shared" ref="A110" si="60">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A110:A173" si="54">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="e" s="0">
-        <f t="shared" ref="A111" si="61">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A111:A174" si="55">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="e" s="0">
-        <f t="shared" ref="A112" si="62">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A112:A175" si="56">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="e" s="0">
-        <f t="shared" ref="A113" si="63">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A113:A176" si="57">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="e" s="0">
-        <f t="shared" ref="A114" si="64">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A114:A177" si="58">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="e" s="0">
-        <f t="shared" ref="A115" si="65">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A115:A178" si="59">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="e" s="0">
-        <f t="shared" ref="A116" si="66">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A116:A179" si="60">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="e" s="0">
-        <f t="shared" ref="A117" si="67">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A117:A180" si="61">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="e" s="0">
-        <f t="shared" ref="A118" si="68">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A118:A181" si="62">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="e" s="0">
-        <f t="shared" ref="A119" si="69">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A119:A182" si="63">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="e" s="0">
-        <f t="shared" ref="A120" si="70">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A120:A183" si="64">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="e" s="0">
-        <f t="shared" ref="A121" si="71">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A121:A184" si="65">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="e" s="0">
-        <f t="shared" ref="A122" si="72">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A122:A185" si="66">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="e" s="0">
-        <f t="shared" ref="A123" si="73">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A123:A186" si="67">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="e" s="0">
-        <f t="shared" ref="A124" si="74">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A124:A187" si="68">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="e" s="0">
-        <f t="shared" ref="A125" si="75">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A125:A188" si="69">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="e" s="0">
-        <f t="shared" ref="A126" si="76">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A126:A189" si="70">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="e" s="0">
-        <f t="shared" ref="A127" si="77">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A127:A190" si="71">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="e" s="0">
-        <f t="shared" ref="A128" si="78">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A128:A191" si="72">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="e" s="0">
-        <f t="shared" ref="A129" si="79">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A129:A192" si="73">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="e" s="0">
-        <f t="shared" ref="A130" si="80">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A130:A193" si="74">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="e" s="0">
-        <f t="shared" ref="A131" si="81">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A131:A194" si="75">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="e" s="0">
-        <f t="shared" ref="A132" si="82">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A132:A195" si="76">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="e" s="0">
-        <f t="shared" ref="A133" si="83">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A133:A196" si="77">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="e" s="0">
-        <f t="shared" ref="A134" si="84">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A134:A197" si="78">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="e" s="0">
-        <f t="shared" ref="A135" si="85">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A135:A198" si="79">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="e" s="0">
-        <f t="shared" ref="A136" si="86">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A136:A199" si="80">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="e" s="0">
-        <f t="shared" ref="A137" si="87">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A137:A200" si="81">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="e" s="0">
-        <f t="shared" ref="A138" si="88">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A138:A201" si="82">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="e" s="0">
-        <f t="shared" ref="A139" si="89">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A139:A202" si="83">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="e" s="0">
-        <f t="shared" ref="A140" si="90">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A140:A203" si="84">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="e" s="0">
-        <f t="shared" ref="A141" si="91">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A141:A204" si="85">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="e" s="0">
-        <f t="shared" ref="A142" si="92">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A142:A205" si="86">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="e" s="0">
-        <f t="shared" ref="A143" si="93">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A143:A206" si="87">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="e" s="0">
-        <f t="shared" ref="A144" si="94">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A144:A207" si="88">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="e" s="0">
-        <f t="shared" ref="A145" si="95">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A145:A208" si="89">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="e" s="0">
-        <f t="shared" ref="A146" si="96">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A146:A209" si="90">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="e" s="0">
-        <f t="shared" ref="A147" si="97">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A147:A210" si="91">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="e" s="0">
-        <f t="shared" ref="A148" si="98">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A148:A211" si="92">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="e" s="0">
-        <f t="shared" ref="A149" si="99">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A149:A212" si="93">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="e" s="0">
-        <f t="shared" ref="A150" si="100">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A150:A213" si="94">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="e" s="0">
-        <f t="shared" ref="A151" si="101">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A151:A214" si="95">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="e" s="0">
-        <f t="shared" ref="A152" si="102">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A152:A215" si="96">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="e" s="0">
-        <f t="shared" ref="A153" si="103">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A153:A216" si="97">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="e" s="0">
-        <f t="shared" ref="A154" si="104">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A154:A217" si="98">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="e" s="0">
-        <f t="shared" ref="A155" si="105">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A155:A218" si="99">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="e" s="0">
-        <f t="shared" ref="A156" si="106">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A156:A219" si="100">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="e" s="0">
-        <f t="shared" ref="A157" si="107">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A157:A220" si="101">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="e" s="0">
-        <f t="shared" ref="A158" si="108">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A158:A221" si="102">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="e" s="0">
-        <f t="shared" ref="A159" si="109">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A159:A222" si="103">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="e" s="0">
-        <f t="shared" ref="A160" si="110">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A160:A223" si="104">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="e" s="0">
-        <f t="shared" ref="A161" si="111">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A161:A224" si="105">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="e" s="0">
-        <f t="shared" ref="A162" si="112">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A162:A225" si="106">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="e" s="0">
-        <f t="shared" ref="A163" si="113">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A163:A226" si="107">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="e" s="0">
-        <f t="shared" ref="A164" si="114">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A164:A227" si="108">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="e" s="0">
-        <f t="shared" ref="A165" si="115">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A165:A228" si="109">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="e" s="0">
-        <f t="shared" ref="A166" si="116">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A166:A229" si="110">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="e" s="0">
-        <f t="shared" ref="A167" si="117">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A167:A230" si="111">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="e" s="0">
-        <f t="shared" ref="A168" si="118">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A168:A231" si="112">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="e" s="0">
-        <f t="shared" ref="A169" si="119">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A169:A232" si="113">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="e" s="0">
-        <f t="shared" ref="A170" si="120">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A170:A233" si="114">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="e" s="0">
-        <f t="shared" ref="A171" si="121">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A171:A234" si="115">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="e" s="0">
-        <f t="shared" ref="A172" si="122">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A172:A235" si="116">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="e" s="0">
-        <f t="shared" ref="A173" si="123">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A173:A236" si="117">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="e" s="0">
-        <f t="shared" ref="A174" si="124">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A174:A237" si="118">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="e" s="0">
-        <f t="shared" ref="A175" si="125">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A175:A238" si="119">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="e" s="0">
-        <f t="shared" ref="A176" si="126">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A176:A239" si="120">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="e" s="0">
-        <f t="shared" ref="A177" si="127">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A177:A240" si="121">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="e" s="0">
-        <f t="shared" ref="A178" si="128">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A178:A241" si="122">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="e" s="0">
-        <f t="shared" ref="A179" si="129">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A179:A242" si="123">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="e" s="0">
-        <f t="shared" ref="A180" si="130">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A180:A243" si="124">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="e" s="0">
-        <f t="shared" ref="A181" si="131">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A181:A244" si="125">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="e" s="0">
-        <f t="shared" ref="A182" si="132">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A182:A245" si="126">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="e" s="0">
-        <f t="shared" ref="A183" si="133">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A183:A246" si="127">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="e" s="0">
-        <f t="shared" ref="A184" si="134">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A184:A247" si="128">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="e" s="0">
-        <f t="shared" ref="A185" si="135">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A185:A248" si="129">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="e" s="0">
-        <f t="shared" ref="A186" si="136">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A186:A249" si="130">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="e" s="0">
-        <f t="shared" ref="A187" si="137">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A187:A250" si="131">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="e" s="0">
-        <f t="shared" ref="A188" si="138">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A188:A251" si="132">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="e" s="0">
-        <f t="shared" ref="A189" si="139">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A189:A252" si="133">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="e" s="0">
-        <f t="shared" ref="A190" si="140">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A190:A253" si="134">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="e" s="0">
-        <f t="shared" ref="A191" si="141">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A191:A254" si="135">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="e" s="0">
-        <f t="shared" ref="A192" si="142">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A192:A255" si="136">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="e" s="0">
-        <f t="shared" ref="A193" si="143">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A193:A256" si="137">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="e" s="0">
-        <f t="shared" ref="A194" si="144">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A194:A257" si="138">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="e" s="0">
-        <f t="shared" ref="A195" si="145">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A195:A258" si="139">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="e" s="0">
-        <f t="shared" ref="A196" si="146">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A196:A259" si="140">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="e" s="0">
-        <f t="shared" ref="A197" si="147">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A197:A260" si="141">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="e" s="0">
-        <f t="shared" ref="A198" si="148">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A198:A261" si="142">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="e" s="0">
-        <f t="shared" ref="A199" si="149">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A199:A262" si="143">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="e" s="0">
-        <f t="shared" ref="A200" si="150">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A200:A263" si="144">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="e" s="0">
-        <f t="shared" ref="A201" si="151">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A201:A264" si="145">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="e" s="0">
-        <f t="shared" ref="A202" si="152">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A202:A265" si="146">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="e" s="0">
-        <f t="shared" ref="A203" si="153">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A203:A266" si="147">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="e" s="0">
-        <f t="shared" ref="A204" si="154">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A204:A267" si="148">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="e" s="0">
-        <f t="shared" ref="A205" si="155">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A205:A268" si="149">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="e" s="0">
-        <f t="shared" ref="A206" si="156">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A206:A269" si="150">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="e" s="0">
-        <f t="shared" ref="A207" si="157">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A207:A270" si="151">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="e" s="0">
-        <f t="shared" ref="A208" si="158">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A208:A271" si="152">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="e" s="0">
-        <f t="shared" ref="A209" si="159">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A209:A272" si="153">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="e" s="0">
-        <f t="shared" ref="A210" si="160">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A210:A273" si="154">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="e" s="0">
-        <f t="shared" ref="A211" si="161">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A211:A274" si="155">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="e" s="0">
-        <f t="shared" ref="A212" si="162">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A212:A275" si="156">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="e" s="0">
-        <f t="shared" ref="A213" si="163">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A213:A276" si="157">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="e" s="0">
-        <f t="shared" ref="A214" si="164">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A214:A277" si="158">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="e" s="0">
-        <f t="shared" ref="A215" si="165">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A215:A278" si="159">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="e" s="0">
-        <f t="shared" ref="A216" si="166">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A216:A279" si="160">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="e" s="0">
-        <f t="shared" ref="A217" si="167">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A217:A280" si="161">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="e" s="0">
-        <f t="shared" ref="A218" si="168">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A218:A281" si="162">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="e" s="0">
-        <f t="shared" ref="A219" si="169">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A219:A282" si="163">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="e" s="0">
-        <f t="shared" ref="A220" si="170">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A220:A283" si="164">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="e" s="0">
-        <f t="shared" ref="A221" si="171">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A221:A284" si="165">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="e" s="0">
-        <f t="shared" ref="A222" si="172">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A222:A285" si="166">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="e" s="0">
-        <f t="shared" ref="A223" si="173">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A223:A286" si="167">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="e" s="0">
-        <f t="shared" ref="A224" si="174">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A224:A287" si="168">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="e" s="0">
-        <f t="shared" ref="A225" si="175">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A225:A288" si="169">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="e" s="0">
-        <f t="shared" ref="A226" si="176">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A226:A289" si="170">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="e" s="0">
-        <f t="shared" ref="A227" si="177">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A227:A290" si="171">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="e" s="0">
-        <f t="shared" ref="A228" si="178">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A228:A291" si="172">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="e" s="0">
-        <f t="shared" ref="A229" si="179">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A229:A292" si="173">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="e" s="0">
-        <f t="shared" ref="A230" si="180">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A230:A293" si="174">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="e" s="0">
-        <f t="shared" ref="A231" si="181">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A231:A294" si="175">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="e" s="0">
-        <f t="shared" ref="A232" si="182">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A232:A295" si="176">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="e" s="0">
-        <f t="shared" ref="A233" si="183">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A233:A296" si="177">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="e" s="0">
-        <f t="shared" ref="A234" si="184">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A234:A297" si="178">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="e" s="0">
-        <f t="shared" ref="A235" si="185">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A235:A298" si="179">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="e" s="0">
-        <f t="shared" ref="A236" si="186">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A236:A299" si="180">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="e" s="0">
-        <f t="shared" ref="A237" si="187">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A237:A300" si="181">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="e" s="0">
-        <f t="shared" ref="A238" si="188">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A238:A301" si="182">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="e" s="0">
-        <f t="shared" ref="A239" si="189">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A239:A302" si="183">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="e" s="0">
-        <f t="shared" ref="A240" si="190">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A240:A303" si="184">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="e" s="0">
-        <f t="shared" ref="A241" si="191">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A241:A304" si="185">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="e" s="0">
-        <f t="shared" ref="A242" si="192">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A242:A305" si="186">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="e" s="0">
-        <f t="shared" ref="A243" si="193">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A243:A306" si="187">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="e" s="0">
-        <f t="shared" ref="A244" si="194">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A244:A307" si="188">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="e" s="0">
-        <f t="shared" ref="A245" si="195">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A245:A308" si="189">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="e" s="0">
-        <f t="shared" ref="A246" si="196">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A246:A309" si="190">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="e" s="0">
-        <f t="shared" ref="A247" si="197">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A247:A310" si="191">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="e" s="0">
-        <f t="shared" ref="A248" si="198">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A248:A311" si="192">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="e" s="0">
-        <f t="shared" ref="A249" si="199">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A249:A312" si="193">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="e" s="0">
-        <f t="shared" ref="A250" si="200">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A250:A313" si="194">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="e" s="0">
-        <f t="shared" ref="A251" si="201">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A251:A314" si="195">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="e" s="0">
-        <f t="shared" ref="A252" si="202">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A252:A315" si="196">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="e" s="0">
-        <f t="shared" ref="A253" si="203">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A253:A316" si="197">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="e" s="0">
-        <f t="shared" ref="A254" si="204">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A254:A317" si="198">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="e" s="0">
-        <f t="shared" ref="A255" si="205">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A255:A318" si="199">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="e" s="0">
-        <f t="shared" ref="A256" si="206">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A256:A319" si="200">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="e" s="0">
-        <f t="shared" ref="A257" si="207">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A257:A320" si="201">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="e" s="0">
-        <f t="shared" ref="A258" si="208">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A258:A321" si="202">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="e" s="0">
-        <f t="shared" ref="A259" si="209">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A259:A322" si="203">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="e" s="0">
-        <f t="shared" ref="A260" si="210">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A260:A323" si="204">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="e" s="0">
-        <f t="shared" ref="A261" si="211">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A261:A324" si="205">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="e" s="0">
-        <f t="shared" ref="A262" si="212">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A262:A325" si="206">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="e" s="0">
-        <f t="shared" ref="A263" si="213">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A263:A326" si="207">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="e" s="0">
-        <f t="shared" ref="A264" si="214">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A264:A327" si="208">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="e" s="0">
-        <f t="shared" ref="A265" si="215">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A265:A328" si="209">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="e" s="0">
-        <f t="shared" ref="A266" si="216">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A266:A329" si="210">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="e" s="0">
-        <f t="shared" ref="A267" si="217">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A267:A330" si="211">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="e" s="0">
-        <f t="shared" ref="A268" si="218">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A268:A331" si="212">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="e" s="0">
-        <f t="shared" ref="A269" si="219">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A269:A332" si="213">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="e" s="0">
-        <f t="shared" ref="A270" si="220">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A270:A333" si="214">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="e" s="0">
-        <f t="shared" ref="A271" si="221">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A271:A334" si="215">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="e" s="0">
-        <f t="shared" ref="A272" si="222">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A272:A335" si="216">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="e" s="0">
-        <f t="shared" ref="A273" si="223">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A273:A336" si="217">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="e" s="0">
-        <f t="shared" ref="A274" si="224">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A274:A337" si="218">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="e" s="0">
-        <f t="shared" ref="A275" si="225">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A275:A338" si="219">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="e" s="0">
-        <f t="shared" ref="A276" si="226">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A276:A339" si="220">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="e" s="0">
-        <f t="shared" ref="A277" si="227">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A277:A340" si="221">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="e" s="0">
-        <f t="shared" ref="A278" si="228">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A278:A341" si="222">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="e" s="0">
-        <f t="shared" ref="A279" si="229">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A279:A342" si="223">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="e" s="0">
-        <f t="shared" ref="A280" si="230">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A280:A343" si="224">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="e" s="0">
-        <f t="shared" ref="A281" si="231">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A281:A344" si="225">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="e" s="0">
-        <f t="shared" ref="A282" si="232">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A282:A345" si="226">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="e" s="0">
-        <f t="shared" ref="A283" si="233">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A283:A346" si="227">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="e" s="0">
-        <f t="shared" ref="A284" si="234">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A284:A347" si="228">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="e" s="0">
-        <f t="shared" ref="A285" si="235">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A285:A348" si="229">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="e" s="0">
-        <f t="shared" ref="A286" si="236">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A286:A349" si="230">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="e" s="0">
-        <f t="shared" ref="A287" si="237">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A287:A350" si="231">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="e" s="0">
-        <f t="shared" ref="A288" si="238">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A288:A351" si="232">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="e" s="0">
-        <f t="shared" ref="A289" si="239">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A289:A352" si="233">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="e" s="0">
-        <f t="shared" ref="A290" si="240">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A290:A353" si="234">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="e" s="0">
-        <f t="shared" ref="A291" si="241">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A291:A354" si="235">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="e" s="0">
-        <f t="shared" ref="A292" si="242">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A292:A355" si="236">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="e" s="0">
-        <f t="shared" ref="A293" si="243">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A293:A356" si="237">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="e" s="0">
-        <f t="shared" ref="A294" si="244">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A294:A357" si="238">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="e" s="0">
-        <f t="shared" ref="A295" si="245">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A295:A358" si="239">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="e" s="0">
-        <f t="shared" ref="A296" si="246">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A296:A359" si="240">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="e" s="0">
-        <f t="shared" ref="A297" si="247">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A297:A360" si="241">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="e" s="0">
-        <f t="shared" ref="A298" si="248">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A298:A361" si="242">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="e" s="0">
-        <f t="shared" ref="A299" si="249">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A299:A362" si="243">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="e" s="0">
-        <f t="shared" ref="A300" si="250">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A300:A363" si="244">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="e" s="0">
-        <f t="shared" ref="A301" si="251">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A301:A364" si="245">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="e" s="0">
-        <f t="shared" ref="A302" si="252">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A302:A365" si="246">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="e" s="0">
-        <f t="shared" ref="A303" si="253">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A303:A366" si="247">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="e" s="0">
-        <f t="shared" ref="A304" si="254">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A304:A367" si="248">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="e" s="0">
-        <f t="shared" ref="A305" si="255">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A305:A368" si="249">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="e" s="0">
-        <f t="shared" ref="A306" si="256">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A306:A369" si="250">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="e" s="0">
-        <f t="shared" ref="A307" si="257">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A307:A370" si="251">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="e" s="0">
-        <f t="shared" ref="A308" si="258">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A308:A371" si="252">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="e" s="0">
-        <f t="shared" ref="A309" si="259">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A309:A372" si="253">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="e" s="0">
-        <f t="shared" ref="A310" si="260">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A310:A373" si="254">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="e" s="0">
-        <f t="shared" ref="A311" si="261">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A311:A374" si="255">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="e" s="0">
-        <f t="shared" ref="A312" si="262">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A312:A375" si="256">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="e" s="0">
-        <f t="shared" ref="A313" si="263">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A313:A376" si="257">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="e" s="0">
-        <f t="shared" ref="A314" si="264">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A314:A377" si="258">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="e" s="0">
-        <f t="shared" ref="A315" si="265">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A315:A378" si="259">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="e" s="0">
-        <f t="shared" ref="A316" si="266">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A316:A379" si="260">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="e" s="0">
-        <f t="shared" ref="A317" si="267">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A317:A380" si="261">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="e" s="0">
-        <f t="shared" ref="A318" si="268">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A318:A381" si="262">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="e" s="0">
-        <f t="shared" ref="A319" si="269">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A319:A382" si="263">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="e" s="0">
-        <f t="shared" ref="A320" si="270">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A320:A383" si="264">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="e" s="0">
-        <f t="shared" ref="A321" si="271">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A321:A384" si="265">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="e" s="0">
-        <f t="shared" ref="A322" si="272">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A322:A385" si="266">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="e" s="0">
-        <f t="shared" ref="A323" si="273">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A323:A386" si="267">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="e" s="0">
-        <f t="shared" ref="A324" si="274">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A324:A387" si="268">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="e" s="0">
-        <f t="shared" ref="A325" si="275">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A325:A388" si="269">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="e" s="0">
-        <f t="shared" ref="A326" si="276">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A326:A389" si="270">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="e" s="0">
-        <f t="shared" ref="A327" si="277">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A327:A390" si="271">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="e" s="0">
-        <f t="shared" ref="A328" si="278">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A328:A391" si="272">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="e" s="0">
-        <f t="shared" ref="A329" si="279">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A329:A392" si="273">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="e" s="0">
-        <f t="shared" ref="A330" si="280">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A330:A393" si="274">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="e" s="0">
-        <f t="shared" ref="A331" si="281">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A331:A394" si="275">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="e" s="0">
-        <f t="shared" ref="A332" si="282">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A332:A395" si="276">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="e" s="0">
-        <f t="shared" ref="A333" si="283">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A333:A396" si="277">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="e" s="0">
-        <f t="shared" ref="A334" si="284">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A334:A397" si="278">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="e" s="0">
-        <f t="shared" ref="A335" si="285">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A335:A398" si="279">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="e" s="0">
-        <f t="shared" ref="A336" si="286">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A336:A399" si="280">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="e" s="0">
-        <f t="shared" ref="A337" si="287">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A337:A400" si="281">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="e" s="0">
-        <f t="shared" ref="A338" si="288">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A338:A401" si="282">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="e" s="0">
-        <f t="shared" ref="A339" si="289">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A339:A402" si="283">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="e" s="0">
-        <f t="shared" ref="A340" si="290">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A340:A403" si="284">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="e" s="0">
-        <f t="shared" ref="A341" si="291">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A341:A404" si="285">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="e" s="0">
-        <f t="shared" ref="A342" si="292">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A342:A405" si="286">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="e" s="0">
-        <f t="shared" ref="A343" si="293">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A343:A406" si="287">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="e" s="0">
-        <f t="shared" ref="A344" si="294">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A344:A407" si="288">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="e" s="0">
-        <f t="shared" ref="A345" si="295">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A345:A408" si="289">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="e" s="0">
-        <f t="shared" ref="A346" si="296">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A346:A409" si="290">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="e" s="0">
-        <f t="shared" ref="A347" si="297">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A347:A410" si="291">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="e" s="0">
-        <f t="shared" ref="A348" si="298">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A348:A411" si="292">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="e" s="0">
-        <f t="shared" ref="A349" si="299">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A349:A412" si="293">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="e" s="0">
-        <f t="shared" ref="A350" si="300">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A350:A413" si="294">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="e" s="0">
-        <f t="shared" ref="A351" si="301">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A351:A414" si="295">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="e" s="0">
-        <f t="shared" ref="A352" si="302">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A352:A415" si="296">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="e" s="0">
-        <f t="shared" ref="A353" si="303">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A353:A416" si="297">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="e" s="0">
-        <f t="shared" ref="A354" si="304">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A354:A417" si="298">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="e" s="0">
-        <f t="shared" ref="A355" si="305">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A355:A418" si="299">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="e" s="0">
-        <f t="shared" ref="A356" si="306">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A356:A419" si="300">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="e" s="0">
-        <f t="shared" ref="A357" si="307">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A357:A420" si="301">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="e" s="0">
-        <f t="shared" ref="A358" si="308">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A358:A421" si="302">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="e" s="0">
-        <f t="shared" ref="A359" si="309">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A359:A422" si="303">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="e" s="0">
-        <f t="shared" ref="A360" si="310">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A360:A423" si="304">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="e" s="0">
-        <f t="shared" ref="A361" si="311">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A361:A424" si="305">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="e" s="0">
-        <f t="shared" ref="A362" si="312">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A362:A425" si="306">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="e" s="0">
-        <f t="shared" ref="A363" si="313">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A363:A426" si="307">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="e" s="0">
-        <f t="shared" ref="A364" si="314">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A364:A427" si="308">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="e" s="0">
-        <f t="shared" ref="A365" si="315">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A365:A428" si="309">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="e" s="0">
-        <f t="shared" ref="A366" si="316">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A366:A429" si="310">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="e" s="0">
-        <f t="shared" ref="A367" si="317">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A367:A430" si="311">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="e" s="0">
-        <f t="shared" ref="A368" si="318">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A368:A431" si="312">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="e" s="0">
-        <f t="shared" ref="A369" si="319">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A369:A432" si="313">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="e" s="0">
-        <f t="shared" ref="A370" si="320">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A370:A433" si="314">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="e" s="0">
-        <f t="shared" ref="A371" si="321">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A371:A434" si="315">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="e" s="0">
-        <f t="shared" ref="A372" si="322">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A372:A435" si="316">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="e" s="0">
-        <f t="shared" ref="A373" si="323">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A373:A436" si="317">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="e" s="0">
-        <f t="shared" ref="A374" si="324">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A374:A437" si="318">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="e" s="0">
-        <f t="shared" ref="A375" si="325">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A375:A438" si="319">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="e" s="0">
-        <f t="shared" ref="A376" si="326">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A376:A439" si="320">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="e" s="0">
-        <f t="shared" ref="A377" si="327">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A377:A440" si="321">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="e" s="0">
-        <f t="shared" ref="A378" si="328">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A378:A441" si="322">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="e" s="0">
-        <f t="shared" ref="A379" si="329">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A379:A442" si="323">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="e" s="0">
-        <f t="shared" ref="A380" si="330">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A380:A443" si="324">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="e" s="0">
-        <f t="shared" ref="A381" si="331">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A381:A444" si="325">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="e" s="0">
-        <f t="shared" ref="A382" si="332">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A382:A445" si="326">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="e" s="0">
-        <f t="shared" ref="A383" si="333">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A383:A446" si="327">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="e" s="0">
-        <f t="shared" ref="A384" si="334">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A384:A447" si="328">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="e" s="0">
-        <f t="shared" ref="A385" si="335">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A385:A448" si="329">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="e" s="0">
-        <f t="shared" ref="A386" si="336">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A386:A449" si="330">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="e" s="0">
-        <f t="shared" ref="A387" si="337">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A387:A450" si="331">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="e" s="0">
-        <f t="shared" ref="A388" si="338">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A388:A451" si="332">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="e" s="0">
-        <f t="shared" ref="A389" si="339">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A389:A452" si="333">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="e" s="0">
-        <f t="shared" ref="A390" si="340">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A390:A453" si="334">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="e" s="0">
-        <f t="shared" ref="A391" si="341">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A391:A454" si="335">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="e" s="0">
-        <f t="shared" ref="A392" si="342">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A392:A455" si="336">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="e" s="0">
-        <f t="shared" ref="A393" si="343">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A393:A456" si="337">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="e" s="0">
-        <f t="shared" ref="A394" si="344">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A394:A457" si="338">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="e" s="0">
-        <f t="shared" ref="A395" si="345">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A395:A458" si="339">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="e" s="0">
-        <f t="shared" ref="A396" si="346">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A396:A459" si="340">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="e" s="0">
-        <f t="shared" ref="A397" si="347">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A397:A460" si="341">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="e" s="0">
-        <f t="shared" ref="A398" si="348">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A398:A461" si="342">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="e" s="0">
-        <f t="shared" ref="A399" si="349">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A399:A462" si="343">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="e" s="0">
-        <f t="shared" ref="A400" si="350">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A400:A463" si="344">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="e" s="0">
-        <f t="shared" ref="A401" si="351">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A401:A464" si="345">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="e" s="0">
-        <f t="shared" ref="A402" si="352">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A402:A465" si="346">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="e" s="0">
-        <f t="shared" ref="A403" si="353">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A403:A466" si="347">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="e" s="0">
-        <f t="shared" ref="A404" si="354">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A404:A467" si="348">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="e" s="0">
-        <f t="shared" ref="A405" si="355">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A405:A468" si="349">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="e" s="0">
-        <f t="shared" ref="A406" si="356">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A406:A469" si="350">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="e" s="0">
-        <f t="shared" ref="A407" si="357">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A407:A470" si="351">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="e" s="0">
-        <f t="shared" ref="A408" si="358">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A408:A471" si="352">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="e" s="0">
-        <f t="shared" ref="A409" si="359">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A409:A472" si="353">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="e" s="0">
-        <f t="shared" ref="A410" si="360">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A410:A473" si="354">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="e" s="0">
-        <f t="shared" ref="A411" si="361">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A411:A474" si="355">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="e" s="0">
-        <f t="shared" ref="A412" si="362">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A412:A475" si="356">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="e" s="0">
-        <f t="shared" ref="A413" si="363">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A413:A476" si="357">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="e" s="0">
-        <f t="shared" ref="A414" si="364">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A414:A477" si="358">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="e" s="0">
-        <f t="shared" ref="A415" si="365">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A415:A478" si="359">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="e" s="0">
-        <f t="shared" ref="A416" si="366">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A416:A479" si="360">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="e" s="0">
-        <f t="shared" ref="A417" si="367">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A417:A480" si="361">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="e" s="0">
-        <f t="shared" ref="A418" si="368">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A418:A481" si="362">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="e" s="0">
-        <f t="shared" ref="A419" si="369">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A419:A482" si="363">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="e" s="0">
-        <f t="shared" ref="A420" si="370">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A420:A483" si="364">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="e" s="0">
-        <f t="shared" ref="A421" si="371">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A421:A484" si="365">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="e" s="0">
-        <f t="shared" ref="A422" si="372">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A422:A485" si="366">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="e" s="0">
-        <f t="shared" ref="A423" si="373">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A423:A486" si="367">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="e" s="0">
-        <f t="shared" ref="A424" si="374">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A424:A487" si="368">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="e" s="0">
-        <f t="shared" ref="A425" si="375">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A425:A488" si="369">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="e" s="0">
-        <f t="shared" ref="A426" si="376">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A426:A489" si="370">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="e" s="0">
-        <f t="shared" ref="A427" si="377">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A427:A490" si="371">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="e" s="0">
-        <f t="shared" ref="A428" si="378">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A428:A491" si="372">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="e" s="0">
-        <f t="shared" ref="A429" si="379">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A429:A492" si="373">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="e" s="0">
-        <f t="shared" ref="A430" si="380">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A430:A493" si="374">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="e" s="0">
-        <f t="shared" ref="A431" si="381">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A431:A494" si="375">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="e" s="0">
-        <f t="shared" ref="A432" si="382">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A432:A495" si="376">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="e" s="0">
-        <f t="shared" ref="A433" si="383">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A433:A496" si="377">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="e" s="0">
-        <f t="shared" ref="A434" si="384">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A434:A497" si="378">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" t="e" s="0">
-        <f t="shared" ref="A435" si="385">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A435:A498" si="379">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="e" s="0">
-        <f t="shared" ref="A436" si="386">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A436:A499" si="380">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="e" s="0">
-        <f t="shared" ref="A437" si="387">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A437:A500" si="381">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="e" s="0">
-        <f t="shared" ref="A438" si="388">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A438:A501" si="382">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="e" s="0">
-        <f t="shared" ref="A439" si="389">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A439:A502" si="383">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="e" s="0">
-        <f t="shared" ref="A440" si="390">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A440:A503" si="384">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="e" s="0">
-        <f t="shared" ref="A441" si="391">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A441:A504" si="385">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="e" s="0">
-        <f t="shared" ref="A442" si="392">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A442:A505" si="386">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="e" s="0">
-        <f t="shared" ref="A443" si="393">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A443:A506" si="387">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="e" s="0">
-        <f t="shared" ref="A444" si="394">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A444:A507" si="388">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="e" s="0">
-        <f t="shared" ref="A445" si="395">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A445:A508" si="389">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="e" s="0">
-        <f t="shared" ref="A446" si="396">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A446:A509" si="390">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="e" s="0">
-        <f t="shared" ref="A447" si="397">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A447:A510" si="391">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="e" s="0">
-        <f t="shared" ref="A448" si="398">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A448:A511" si="392">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="e" s="0">
-        <f t="shared" ref="A449" si="399">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A449:A512" si="393">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="e" s="0">
-        <f t="shared" ref="A450" si="400">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A450:A513" si="394">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="e" s="0">
-        <f t="shared" ref="A451" si="401">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A451:A514" si="395">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="e" s="0">
-        <f t="shared" ref="A452" si="402">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A452:A515" si="396">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="e" s="0">
-        <f t="shared" ref="A453" si="403">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A453:A516" si="397">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="e" s="0">
-        <f t="shared" ref="A454" si="404">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A454:A517" si="398">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="e" s="0">
-        <f t="shared" ref="A455" si="405">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A455:A518" si="399">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="e" s="0">
-        <f t="shared" ref="A456" si="406">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A456:A519" si="400">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="e" s="0">
-        <f t="shared" ref="A457" si="407">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A457:A520" si="401">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="e" s="0">
-        <f t="shared" ref="A458" si="408">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A458:A521" si="402">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="e" s="0">
-        <f t="shared" ref="A459" si="409">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A459:A522" si="403">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="e" s="0">
-        <f t="shared" ref="A460" si="410">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A460:A523" si="404">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="e" s="0">
-        <f t="shared" ref="A461" si="411">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A461:A524" si="405">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="e" s="0">
-        <f t="shared" ref="A462" si="412">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A462:A525" si="406">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="e" s="0">
-        <f t="shared" ref="A463" si="413">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A463:A526" si="407">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="e" s="0">
-        <f t="shared" ref="A464" si="414">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A464:A527" si="408">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="e" s="0">
-        <f t="shared" ref="A465" si="415">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A465:A528" si="409">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="e" s="0">
-        <f t="shared" ref="A466" si="416">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A466:A529" si="410">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="e" s="0">
-        <f t="shared" ref="A467" si="417">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A467:A530" si="411">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="e" s="0">
-        <f t="shared" ref="A468" si="418">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A468:A531" si="412">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="e" s="0">
-        <f t="shared" ref="A469" si="419">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A469:A532" si="413">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="e" s="0">
-        <f t="shared" ref="A470" si="420">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A470:A533" si="414">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="e" s="0">
-        <f t="shared" ref="A471" si="421">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A471:A534" si="415">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="e" s="0">
-        <f t="shared" ref="A472" si="422">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A472:A535" si="416">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="e" s="0">
-        <f t="shared" ref="A473" si="423">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A473:A536" si="417">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="e" s="0">
-        <f t="shared" ref="A474" si="424">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A474:A537" si="418">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="e" s="0">
-        <f t="shared" ref="A475" si="425">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A475:A538" si="419">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="e" s="0">
-        <f t="shared" ref="A476" si="426">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A476:A539" si="420">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" t="e" s="0">
-        <f t="shared" ref="A477" si="427">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A477:A540" si="421">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" t="e" s="0">
-        <f t="shared" ref="A478" si="428">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A478:A541" si="422">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" t="e" s="0">
-        <f t="shared" ref="A479" si="429">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A479:A542" si="423">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="e" s="0">
-        <f t="shared" ref="A480" si="430">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A480:A543" si="424">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" t="e" s="0">
-        <f t="shared" ref="A481" si="431">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A481:A544" si="425">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" t="e" s="0">
-        <f t="shared" ref="A482" si="432">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A482:A545" si="426">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" t="e" s="0">
-        <f t="shared" ref="A483" si="433">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A483:A546" si="427">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" t="e" s="0">
-        <f t="shared" ref="A484" si="434">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A484:A547" si="428">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" t="e" s="0">
-        <f t="shared" ref="A485" si="435">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A485:A548" si="429">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" t="e" s="0">
-        <f t="shared" ref="A486" si="436">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A486:A549" si="430">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" t="e" s="0">
-        <f t="shared" ref="A487" si="437">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A487:A550" si="431">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" t="e" s="0">
-        <f t="shared" ref="A488" si="438">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A488:A551" si="432">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" t="e" s="0">
-        <f t="shared" ref="A489" si="439">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A489:A552" si="433">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" t="e" s="0">
-        <f t="shared" ref="A490" si="440">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A490:A553" si="434">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" t="e" s="0">
-        <f t="shared" ref="A491" si="441">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A491:A554" si="435">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" t="e" s="0">
-        <f t="shared" ref="A492" si="442">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A492:A555" si="436">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" t="e" s="0">
-        <f t="shared" ref="A493" si="443">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A493:A556" si="437">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" t="e" s="0">
-        <f t="shared" ref="A494" si="444">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A494:A557" si="438">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" t="e" s="0">
-        <f t="shared" ref="A495" si="445">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A495:A558" si="439">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" t="e" s="0">
-        <f t="shared" ref="A496" si="446">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A496:A559" si="440">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" t="e" s="0">
-        <f t="shared" ref="A497" si="447">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A497:A560" si="441">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="e" s="0">
-        <f t="shared" ref="A498" si="448">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A498:A561" si="442">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" t="e" s="0">
-        <f t="shared" ref="A499" si="449">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A499:A562" si="443">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" t="e" s="0">
-        <f t="shared" ref="A500" si="450">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A500:A563" si="444">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" t="e" s="0">
-        <f t="shared" ref="A501" si="451">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A501:A564" si="445">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" t="e" s="0">
-        <f t="shared" ref="A502" si="452">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A502:A565" si="446">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" t="e" s="0">
-        <f t="shared" ref="A503" si="453">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A503:A566" si="447">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" t="e" s="0">
-        <f t="shared" ref="A504" si="454">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A504:A567" si="448">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" t="e" s="0">
-        <f t="shared" ref="A505" si="455">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A505:A568" si="449">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" t="e" s="0">
-        <f t="shared" ref="A506" si="456">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A506:A569" si="450">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" t="e" s="0">
-        <f t="shared" ref="A507" si="457">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A507:A570" si="451">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" t="e" s="0">
-        <f t="shared" ref="A508" si="458">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A508:A571" si="452">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" t="e" s="0">
-        <f t="shared" ref="A509" si="459">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A509:A572" si="453">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" t="e" s="0">
-        <f t="shared" ref="A510" si="460">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A510:A573" si="454">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" t="e" s="0">
-        <f t="shared" ref="A511" si="461">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A511:A574" si="455">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" t="e" s="0">
-        <f t="shared" ref="A512" si="462">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A512:A575" si="456">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" t="e" s="0">
-        <f t="shared" ref="A513" si="463">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A513:A576" si="457">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" t="e" s="0">
-        <f t="shared" ref="A514" si="464">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A514:A577" si="458">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" t="e" s="0">
-        <f t="shared" ref="A515" si="465">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A515:A578" si="459">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" t="e" s="0">
-        <f t="shared" ref="A516" si="466">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A516:A579" si="460">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" t="e" s="0">
-        <f t="shared" ref="A517" si="467">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A517:A580" si="461">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" t="e" s="0">
-        <f t="shared" ref="A518" si="468">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A518:A581" si="462">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" t="e" s="0">
-        <f t="shared" ref="A519" si="469">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A519:A582" si="463">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" t="e" s="0">
-        <f t="shared" ref="A520" si="470">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A520:A583" si="464">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" t="e" s="0">
-        <f t="shared" ref="A521" si="471">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A521:A584" si="465">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" t="e" s="0">
-        <f t="shared" ref="A522" si="472">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A522:A585" si="466">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" t="e" s="0">
-        <f t="shared" ref="A523" si="473">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A523:A586" si="467">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" t="e" s="0">
-        <f t="shared" ref="A524" si="474">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A524:A587" si="468">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" t="e" s="0">
-        <f t="shared" ref="A525" si="475">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A525:A588" si="469">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" t="e" s="0">
-        <f t="shared" ref="A526" si="476">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A526:A589" si="470">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" t="e" s="0">
-        <f t="shared" ref="A527" si="477">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A527:A590" si="471">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" t="e" s="0">
-        <f t="shared" ref="A528" si="478">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A528:A591" si="472">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" t="e" s="0">
-        <f t="shared" ref="A529" si="479">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A529:A592" si="473">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" t="e" s="0">
-        <f t="shared" ref="A530" si="480">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A530:A593" si="474">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" t="e" s="0">
-        <f t="shared" ref="A531" si="481">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A531:A594" si="475">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" t="e" s="0">
-        <f t="shared" ref="A532" si="482">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A532:A595" si="476">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" t="e" s="0">
-        <f t="shared" ref="A533" si="483">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A533:A596" si="477">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" t="e" s="0">
-        <f t="shared" ref="A534" si="484">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A534:A597" si="478">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" t="e" s="0">
-        <f t="shared" ref="A535" si="485">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A535:A598" si="479">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" t="e" s="0">
-        <f t="shared" ref="A536" si="486">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A536:A599" si="480">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" t="e" s="0">
-        <f t="shared" ref="A537" si="487">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A537:A600" si="481">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" t="e" s="0">
-        <f t="shared" ref="A538" si="488">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A538:A601" si="482">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" t="e" s="0">
-        <f t="shared" ref="A539" si="489">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A539:A602" si="483">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" t="e" s="0">
-        <f t="shared" ref="A540" si="490">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A540:A603" si="484">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" t="e" s="0">
-        <f t="shared" ref="A541" si="491">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A541:A604" si="485">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" t="e" s="0">
-        <f t="shared" ref="A542" si="492">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A542:A605" si="486">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" t="e" s="0">
-        <f t="shared" ref="A543" si="493">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A543:A606" si="487">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" t="e" s="0">
-        <f t="shared" ref="A544" si="494">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A544:A607" si="488">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" t="e" s="0">
-        <f t="shared" ref="A545" si="495">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A545:A608" si="489">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" t="e" s="0">
-        <f t="shared" ref="A546" si="496">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A546:A609" si="490">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" t="e" s="0">
-        <f t="shared" ref="A547" si="497">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A547:A610" si="491">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" t="e" s="0">
-        <f t="shared" ref="A548" si="498">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A548:A611" si="492">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" t="e" s="0">
-        <f t="shared" ref="A549" si="499">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A549:A612" si="493">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" t="e" s="0">
-        <f t="shared" ref="A550" si="500">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A550:A613" si="494">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" t="e" s="0">
-        <f t="shared" ref="A551" si="501">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A551:A614" si="495">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" t="e" s="0">
-        <f t="shared" ref="A552" si="502">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A552:A615" si="496">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" t="e" s="0">
-        <f t="shared" ref="A553" si="503">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A553:A616" si="497">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" t="e" s="0">
-        <f t="shared" ref="A554" si="504">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A554:A617" si="498">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" t="e" s="0">
-        <f t="shared" ref="A555" si="505">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A555:A618" si="499">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" t="e" s="0">
-        <f t="shared" ref="A556" si="506">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A556:A619" si="500">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" t="e" s="0">
-        <f t="shared" ref="A557" si="507">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A557:A620" si="501">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" t="e" s="0">
-        <f t="shared" ref="A558" si="508">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A558:A621" si="502">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" t="e" s="0">
-        <f t="shared" ref="A559" si="509">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A559:A622" si="503">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" t="e" s="0">
-        <f t="shared" ref="A560" si="510">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A560:A623" si="504">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" t="e" s="0">
-        <f t="shared" ref="A561" si="511">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A561:A624" si="505">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" t="e" s="0">
-        <f t="shared" ref="A562" si="512">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A562:A625" si="506">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" t="e" s="0">
-        <f t="shared" ref="A563" si="513">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A563:A626" si="507">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" t="e" s="0">
-        <f t="shared" ref="A564" si="514">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A564:A627" si="508">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" t="e" s="0">
-        <f t="shared" ref="A565" si="515">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A565:A628" si="509">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" t="e" s="0">
-        <f t="shared" ref="A566" si="516">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A566:A629" si="510">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" t="e" s="0">
-        <f t="shared" ref="A567" si="517">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A567:A630" si="511">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" t="e" s="0">
-        <f t="shared" ref="A568" si="518">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A568:A631" si="512">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" t="e" s="0">
-        <f t="shared" ref="A569" si="519">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A569:A632" si="513">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" t="e" s="0">
-        <f t="shared" ref="A570" si="520">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A570:A633" si="514">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" t="e" s="0">
-        <f t="shared" ref="A571" si="521">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A571:A634" si="515">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" t="e" s="0">
-        <f t="shared" ref="A572" si="522">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A572:A635" si="516">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" t="e" s="0">
-        <f t="shared" ref="A573" si="523">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A573:A636" si="517">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" t="e" s="0">
-        <f t="shared" ref="A574" si="524">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A574:A637" si="518">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" t="e" s="0">
-        <f t="shared" ref="A575" si="525">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A575:A638" si="519">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" t="e" s="0">
-        <f t="shared" ref="A576" si="526">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A576:A639" si="520">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" t="e" s="0">
-        <f t="shared" ref="A577" si="527">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A577:A640" si="521">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" t="e" s="0">
-        <f t="shared" ref="A578" si="528">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A578:A641" si="522">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" t="e" s="0">
-        <f t="shared" ref="A579" si="529">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A579:A642" si="523">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" t="e" s="0">
-        <f t="shared" ref="A580" si="530">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A580:A643" si="524">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" t="e" s="0">
-        <f t="shared" ref="A581" si="531">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A581:A644" si="525">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" t="e" s="0">
-        <f t="shared" ref="A582" si="532">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A582:A645" si="526">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" t="e" s="0">
-        <f t="shared" ref="A583" si="533">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A583:A646" si="527">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" t="e" s="0">
-        <f t="shared" ref="A584" si="534">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A584:A647" si="528">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" t="e" s="0">
-        <f t="shared" ref="A585" si="535">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A585:A648" si="529">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" t="e" s="0">
-        <f t="shared" ref="A586" si="536">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A586:A649" si="530">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" t="e" s="0">
-        <f t="shared" ref="A587" si="537">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A587:A650" si="531">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" t="e" s="0">
-        <f t="shared" ref="A588" si="538">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A588:A651" si="532">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" t="e" s="0">
-        <f t="shared" ref="A589" si="539">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A589:A652" si="533">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" t="e" s="0">
-        <f t="shared" ref="A590" si="540">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A590:A653" si="534">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" t="e" s="0">
-        <f t="shared" ref="A591" si="541">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A591:A654" si="535">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" t="e" s="0">
-        <f t="shared" ref="A592" si="542">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A592:A655" si="536">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" t="e" s="0">
-        <f t="shared" ref="A593" si="543">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A593:A656" si="537">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" t="e" s="0">
-        <f t="shared" ref="A594" si="544">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A594:A657" si="538">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" t="e" s="0">
-        <f t="shared" ref="A595" si="545">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A595:A658" si="539">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596" t="e" s="0">
-        <f t="shared" ref="A596" si="546">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A596:A659" si="540">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" t="e" s="0">
-        <f t="shared" ref="A597" si="547">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A597:A660" si="541">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" t="e" s="0">
-        <f t="shared" ref="A598" si="548">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A598:A661" si="542">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" t="e" s="0">
-        <f t="shared" ref="A599" si="549">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A599:A662" si="543">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" t="e" s="0">
-        <f t="shared" ref="A600" si="550">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A600:A663" si="544">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" t="e" s="0">
-        <f t="shared" ref="A601" si="551">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A601:A664" si="545">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" t="e" s="0">
-        <f t="shared" ref="A602" si="552">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A602:A665" si="546">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" t="e" s="0">
-        <f t="shared" ref="A603" si="553">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A603:A666" si="547">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604" t="e" s="0">
-        <f t="shared" ref="A604" si="554">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A604:A667" si="548">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605" t="e" s="0">
-        <f t="shared" ref="A605" si="555">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A605:A668" si="549">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606" t="e" s="0">
-        <f t="shared" ref="A606" si="556">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A606:A669" si="550">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" t="e" s="0">
-        <f t="shared" ref="A607" si="557">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A607:A670" si="551">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608" t="e" s="0">
-        <f t="shared" ref="A608" si="558">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A608:A671" si="552">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609" t="e" s="0">
-        <f t="shared" ref="A609" si="559">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A609:A672" si="553">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" t="e" s="0">
-        <f t="shared" ref="A610" si="560">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A610:A673" si="554">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" t="e" s="0">
-        <f t="shared" ref="A611" si="561">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A611:A674" si="555">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" t="e" s="0">
-        <f t="shared" ref="A612" si="562">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A612:A675" si="556">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" t="e" s="0">
-        <f t="shared" ref="A613" si="563">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A613:A676" si="557">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614" t="e" s="0">
-        <f t="shared" ref="A614" si="564">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A614:A677" si="558">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" t="e" s="0">
-        <f t="shared" ref="A615" si="565">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A615:A678" si="559">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" t="e" s="0">
-        <f t="shared" ref="A616" si="566">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A616:A679" si="560">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" t="e" s="0">
-        <f t="shared" ref="A617" si="567">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A617:A680" si="561">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618" t="e" s="0">
-        <f t="shared" ref="A618" si="568">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A618:A681" si="562">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619" t="e" s="0">
-        <f t="shared" ref="A619" si="569">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A619:A682" si="563">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620" t="e" s="0">
-        <f t="shared" ref="A620" si="570">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A620:A683" si="564">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621" t="e" s="0">
-        <f t="shared" ref="A621" si="571">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A621:A684" si="565">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" t="e" s="0">
-        <f t="shared" ref="A622" si="572">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A622:A685" si="566">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" t="e" s="0">
-        <f t="shared" ref="A623" si="573">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A623:A686" si="567">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" t="e" s="0">
-        <f t="shared" ref="A624" si="574">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A624:A687" si="568">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625" t="e" s="0">
-        <f t="shared" ref="A625" si="575">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A625:A688" si="569">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626" t="e" s="0">
-        <f t="shared" ref="A626" si="576">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A626:A689" si="570">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627" t="e" s="0">
-        <f t="shared" ref="A627" si="577">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A627:A690" si="571">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628" t="e" s="0">
-        <f t="shared" ref="A628" si="578">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A628:A691" si="572">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629" t="e" s="0">
-        <f t="shared" ref="A629" si="579">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A629:A692" si="573">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630" t="e" s="0">
-        <f t="shared" ref="A630" si="580">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A630:A693" si="574">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631" t="e" s="0">
-        <f t="shared" ref="A631" si="581">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A631:A694" si="575">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" t="e" s="0">
-        <f t="shared" ref="A632" si="582">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A632:A695" si="576">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633" t="e" s="0">
-        <f t="shared" ref="A633" si="583">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A633:A696" si="577">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634" t="e" s="0">
-        <f t="shared" ref="A634" si="584">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A634:A697" si="578">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" t="e" s="0">
-        <f t="shared" ref="A635" si="585">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A635:A698" si="579">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" t="e" s="0">
-        <f t="shared" ref="A636" si="586">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A636:A699" si="580">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" t="e" s="0">
-        <f t="shared" ref="A637" si="587">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A637:A700" si="581">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" t="e" s="0">
-        <f t="shared" ref="A638" si="588">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A638:A701" si="582">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" t="e" s="0">
-        <f t="shared" ref="A639" si="589">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A639:A702" si="583">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" t="e" s="0">
-        <f t="shared" ref="A640" si="590">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A640:A703" si="584">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" t="e" s="0">
-        <f t="shared" ref="A641" si="591">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A641:A704" si="585">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" t="e" s="0">
-        <f t="shared" ref="A642" si="592">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A642:A705" si="586">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" t="e" s="0">
-        <f t="shared" ref="A643" si="593">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A643:A706" si="587">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" t="e" s="0">
-        <f t="shared" ref="A644" si="594">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A644:A707" si="588">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" t="e" s="0">
-        <f t="shared" ref="A645" si="595">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A645:A708" si="589">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" t="e" s="0">
-        <f t="shared" ref="A646" si="596">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A646:A709" si="590">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647" t="e" s="0">
-        <f t="shared" ref="A647" si="597">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A647:A710" si="591">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648" t="e" s="0">
-        <f t="shared" ref="A648" si="598">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A648:A711" si="592">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" t="e" s="0">
-        <f t="shared" ref="A649" si="599">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A649:A712" si="593">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650" t="e" s="0">
-        <f t="shared" ref="A650" si="600">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A650:A713" si="594">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651" t="e" s="0">
-        <f t="shared" ref="A651" si="601">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A651:A714" si="595">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652" t="e" s="0">
-        <f t="shared" ref="A652" si="602">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A652:A715" si="596">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" t="e" s="0">
-        <f t="shared" ref="A653" si="603">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A653:A716" si="597">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654" t="e" s="0">
-        <f t="shared" ref="A654" si="604">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A654:A717" si="598">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655" t="e" s="0">
-        <f t="shared" ref="A655" si="605">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A655:A718" si="599">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656" t="e" s="0">
-        <f t="shared" ref="A656" si="606">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A656:A719" si="600">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" t="e" s="0">
-        <f t="shared" ref="A657" si="607">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A657:A720" si="601">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658" t="e" s="0">
-        <f t="shared" ref="A658" si="608">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A658:A721" si="602">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659" t="e" s="0">
-        <f t="shared" ref="A659" si="609">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A659:A722" si="603">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" t="e" s="0">
-        <f t="shared" ref="A660" si="610">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A660:A723" si="604">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" t="e" s="0">
-        <f t="shared" ref="A661" si="611">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A661:A724" si="605">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" t="e" s="0">
-        <f t="shared" ref="A662" si="612">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A662:A725" si="606">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" t="e" s="0">
-        <f t="shared" ref="A663" si="613">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A663:A726" si="607">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664" t="e" s="0">
-        <f t="shared" ref="A664" si="614">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A664:A727" si="608">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" t="e" s="0">
-        <f t="shared" ref="A665" si="615">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A665:A728" si="609">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" t="e" s="0">
-        <f t="shared" ref="A666" si="616">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A666:A729" si="610">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" t="e" s="0">
-        <f t="shared" ref="A667" si="617">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A667:A730" si="611">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" t="e" s="0">
-        <f t="shared" ref="A668" si="618">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A668:A731" si="612">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" t="e" s="0">
-        <f t="shared" ref="A669" si="619">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A669:A732" si="613">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" t="e" s="0">
-        <f t="shared" ref="A670" si="620">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A670:A733" si="614">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" t="e" s="0">
-        <f t="shared" ref="A671" si="621">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A671:A734" si="615">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" t="e" s="0">
-        <f t="shared" ref="A672" si="622">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A672:A735" si="616">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" t="e" s="0">
-        <f t="shared" ref="A673" si="623">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A673:A736" si="617">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" t="e" s="0">
-        <f t="shared" ref="A674" si="624">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A674:A737" si="618">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" t="e" s="0">
-        <f t="shared" ref="A675" si="625">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A675:A738" si="619">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" t="e" s="0">
-        <f t="shared" ref="A676" si="626">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A676:A739" si="620">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" t="e" s="0">
-        <f t="shared" ref="A677" si="627">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A677:A740" si="621">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" t="e" s="0">
-        <f t="shared" ref="A678" si="628">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A678:A741" si="622">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" t="e" s="0">
-        <f t="shared" ref="A679" si="629">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A679:A742" si="623">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" t="e" s="0">
-        <f t="shared" ref="A680" si="630">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A680:A743" si="624">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" t="e" s="0">
-        <f t="shared" ref="A681" si="631">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A681:A744" si="625">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682" t="e" s="0">
-        <f t="shared" ref="A682" si="632">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A682:A745" si="626">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683" t="e" s="0">
-        <f t="shared" ref="A683" si="633">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A683:A746" si="627">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" t="e" s="0">
-        <f t="shared" ref="A684" si="634">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A684:A747" si="628">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685" t="e" s="0">
-        <f t="shared" ref="A685" si="635">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A685:A748" si="629">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686" t="e" s="0">
-        <f t="shared" ref="A686" si="636">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A686:A749" si="630">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" t="e" s="0">
-        <f t="shared" ref="A687" si="637">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A687:A750" si="631">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" t="e" s="0">
-        <f t="shared" ref="A688" si="638">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A688:A751" si="632">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" t="e" s="0">
-        <f t="shared" ref="A689" si="639">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A689:A752" si="633">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" t="e" s="0">
-        <f t="shared" ref="A690" si="640">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A690:A753" si="634">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691" t="e" s="0">
-        <f t="shared" ref="A691" si="641">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A691:A754" si="635">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692" t="e" s="0">
-        <f t="shared" ref="A692" si="642">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A692:A755" si="636">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693" t="e" s="0">
-        <f t="shared" ref="A693" si="643">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A693:A756" si="637">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694" t="e" s="0">
-        <f t="shared" ref="A694" si="644">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A694:A757" si="638">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695" t="e" s="0">
-        <f t="shared" ref="A695" si="645">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A695:A758" si="639">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696" t="e" s="0">
-        <f t="shared" ref="A696" si="646">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A696:A759" si="640">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697" t="e" s="0">
-        <f t="shared" ref="A697" si="647">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A697:A760" si="641">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698" t="e" s="0">
-        <f t="shared" ref="A698" si="648">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A698:A761" si="642">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699" t="e" s="0">
-        <f t="shared" ref="A699" si="649">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A699:A762" si="643">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700" t="e" s="0">
-        <f t="shared" ref="A700" si="650">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A700:A763" si="644">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701" t="e" s="0">
-        <f t="shared" ref="A701" si="651">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A701:A764" si="645">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702" t="e" s="0">
-        <f t="shared" ref="A702" si="652">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A702:A765" si="646">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703" t="e" s="0">
-        <f t="shared" ref="A703" si="653">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A703:A766" si="647">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704" t="e" s="0">
-        <f t="shared" ref="A704" si="654">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A704:A767" si="648">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705" t="e" s="0">
-        <f t="shared" ref="A705" si="655">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A705:A768" si="649">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706" t="e" s="0">
-        <f t="shared" ref="A706" si="656">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A706:A769" si="650">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707" t="e" s="0">
-        <f t="shared" ref="A707" si="657">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A707:A770" si="651">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708" t="e" s="0">
-        <f t="shared" ref="A708" si="658">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A708:A771" si="652">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709" t="e" s="0">
-        <f t="shared" ref="A709" si="659">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A709:A772" si="653">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710" t="e" s="0">
-        <f t="shared" ref="A710" si="660">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A710:A773" si="654">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711" t="e" s="0">
-        <f t="shared" ref="A711" si="661">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A711:A774" si="655">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712" t="e" s="0">
-        <f t="shared" ref="A712" si="662">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A712:A775" si="656">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713" t="e" s="0">
-        <f t="shared" ref="A713" si="663">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A713:A776" si="657">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714" t="e" s="0">
-        <f t="shared" ref="A714" si="664">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A714:A777" si="658">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715" t="e" s="0">
-        <f t="shared" ref="A715" si="665">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A715:A778" si="659">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716" t="e" s="0">
-        <f t="shared" ref="A716" si="666">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A716:A779" si="660">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717" t="e" s="0">
-        <f t="shared" ref="A717" si="667">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A717:A780" si="661">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" t="e" s="0">
-        <f t="shared" ref="A718" si="668">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A718:A781" si="662">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719" t="e" s="0">
-        <f t="shared" ref="A719" si="669">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A719:A782" si="663">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720" t="e" s="0">
-        <f t="shared" ref="A720" si="670">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A720:A783" si="664">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721" t="e" s="0">
-        <f t="shared" ref="A721" si="671">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A721:A784" si="665">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722" t="e" s="0">
-        <f t="shared" ref="A722" si="672">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A722:A785" si="666">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723" t="e" s="0">
-        <f t="shared" ref="A723" si="673">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A723:A786" si="667">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724" t="e" s="0">
-        <f t="shared" ref="A724" si="674">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A724:A787" si="668">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725" t="e" s="0">
-        <f t="shared" ref="A725" si="675">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A725:A788" si="669">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726" t="e" s="0">
-        <f t="shared" ref="A726" si="676">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A726:A789" si="670">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727" t="e" s="0">
-        <f t="shared" ref="A727" si="677">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A727:A790" si="671">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728" t="e" s="0">
-        <f t="shared" ref="A728" si="678">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A728:A791" si="672">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729" t="e" s="0">
-        <f t="shared" ref="A729" si="679">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A729:A792" si="673">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730" t="e" s="0">
-        <f t="shared" ref="A730" si="680">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A730:A793" si="674">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731" t="e" s="0">
-        <f t="shared" ref="A731" si="681">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A731:A794" si="675">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732" t="e" s="0">
-        <f t="shared" ref="A732" si="682">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A732:A795" si="676">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733" t="e" s="0">
-        <f t="shared" ref="A733" si="683">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A733:A796" si="677">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734" t="e" s="0">
-        <f t="shared" ref="A734" si="684">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A734:A797" si="678">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735" t="e" s="0">
-        <f t="shared" ref="A735" si="685">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A735:A798" si="679">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736" t="e" s="0">
-        <f t="shared" ref="A736" si="686">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A736:A799" si="680">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737" t="e" s="0">
-        <f t="shared" ref="A737" si="687">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A737:A800" si="681">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738" t="e" s="0">
-        <f t="shared" ref="A738" si="688">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A738:A801" si="682">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739" t="e" s="0">
-        <f t="shared" ref="A739" si="689">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A739:A802" si="683">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740" t="e" s="0">
-        <f t="shared" ref="A740" si="690">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A740:A803" si="684">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741" t="e" s="0">
-        <f t="shared" ref="A741" si="691">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A741:A804" si="685">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742" t="e" s="0">
-        <f t="shared" ref="A742" si="692">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A742:A805" si="686">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743" t="e" s="0">
-        <f t="shared" ref="A743" si="693">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A743:A806" si="687">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744" t="e" s="0">
-        <f t="shared" ref="A744" si="694">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A744:A807" si="688">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745" t="e" s="0">
-        <f t="shared" ref="A745" si="695">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A745:A808" si="689">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746" t="e" s="0">
-        <f t="shared" ref="A746" si="696">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A746:A809" si="690">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747" t="e" s="0">
-        <f t="shared" ref="A747" si="697">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A747:A810" si="691">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748" t="e" s="0">
-        <f t="shared" ref="A748" si="698">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A748:A811" si="692">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749" t="e" s="0">
-        <f t="shared" ref="A749" si="699">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A749:A812" si="693">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750" t="e" s="0">
-        <f t="shared" ref="A750" si="700">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A750:A813" si="694">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751" t="e" s="0">
-        <f t="shared" ref="A751" si="701">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A751:A814" si="695">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752" t="e" s="0">
-        <f t="shared" ref="A752" si="702">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A752:A815" si="696">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A753" t="e" s="0">
-        <f t="shared" ref="A753" si="703">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A753:A816" si="697">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754" t="e" s="0">
-        <f t="shared" ref="A754" si="704">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A754:A817" si="698">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A755" t="e" s="0">
-        <f t="shared" ref="A755" si="705">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A755:A818" si="699">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756" t="e" s="0">
-        <f t="shared" ref="A756" si="706">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A756:A819" si="700">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757" t="e" s="0">
-        <f t="shared" ref="A757" si="707">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A757:A820" si="701">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758" t="e" s="0">
-        <f t="shared" ref="A758" si="708">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A758:A821" si="702">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759" t="e" s="0">
-        <f t="shared" ref="A759" si="709">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A759:A822" si="703">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760" t="e" s="0">
-        <f t="shared" ref="A760" si="710">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A760:A823" si="704">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761" t="e" s="0">
-        <f t="shared" ref="A761" si="711">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A761:A824" si="705">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762" t="e" s="0">
-        <f t="shared" ref="A762" si="712">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A762:A825" si="706">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763" t="e" s="0">
-        <f t="shared" ref="A763" si="713">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A763:A826" si="707">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" t="e" s="0">
-        <f t="shared" ref="A764" si="714">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A764:A827" si="708">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765" t="e" s="0">
-        <f t="shared" ref="A765" si="715">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A765:A828" si="709">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766" t="e" s="0">
-        <f t="shared" ref="A766" si="716">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A766:A829" si="710">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767" t="e" s="0">
-        <f t="shared" ref="A767" si="717">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A767:A830" si="711">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768" t="e" s="0">
-        <f t="shared" ref="A768" si="718">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A768:A831" si="712">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769" t="e" s="0">
-        <f t="shared" ref="A769" si="719">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A769:A832" si="713">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" t="e" s="0">
-        <f t="shared" ref="A770" si="720">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A770:A833" si="714">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" t="e" s="0">
-        <f t="shared" ref="A771" si="721">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A771:A834" si="715">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" t="e" s="0">
-        <f t="shared" ref="A772" si="722">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A772:A835" si="716">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" t="e" s="0">
-        <f t="shared" ref="A773" si="723">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A773:A836" si="717">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774" t="e" s="0">
-        <f t="shared" ref="A774" si="724">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A774:A837" si="718">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775" t="e" s="0">
-        <f t="shared" ref="A775" si="725">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A775:A838" si="719">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776" t="e" s="0">
-        <f t="shared" ref="A776" si="726">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A776:A839" si="720">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777" t="e" s="0">
-        <f t="shared" ref="A777" si="727">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A777:A840" si="721">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" t="e" s="0">
-        <f t="shared" ref="A778" si="728">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A778:A841" si="722">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779" t="e" s="0">
-        <f t="shared" ref="A779" si="729">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A779:A842" si="723">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780" t="e" s="0">
-        <f t="shared" ref="A780" si="730">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A780:A843" si="724">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781" t="e" s="0">
-        <f t="shared" ref="A781" si="731">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A781:A844" si="725">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" t="e" s="0">
-        <f t="shared" ref="A782" si="732">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A782:A845" si="726">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783" t="e" s="0">
-        <f t="shared" ref="A783" si="733">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A783:A846" si="727">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784" t="e" s="0">
-        <f t="shared" ref="A784" si="734">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A784:A847" si="728">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785" t="e" s="0">
-        <f t="shared" ref="A785" si="735">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A785:A848" si="729">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786" t="e" s="0">
-        <f t="shared" ref="A786" si="736">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A786:A849" si="730">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787" t="e" s="0">
-        <f t="shared" ref="A787" si="737">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A787:A850" si="731">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788" t="e" s="0">
-        <f t="shared" ref="A788" si="738">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A788:A851" si="732">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789" t="e" s="0">
-        <f t="shared" ref="A789" si="739">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A789:A852" si="733">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790" t="e" s="0">
-        <f t="shared" ref="A790" si="740">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A790:A853" si="734">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791" t="e" s="0">
-        <f t="shared" ref="A791" si="741">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A791:A854" si="735">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792" t="e" s="0">
-        <f t="shared" ref="A792" si="742">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A792:A855" si="736">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793" t="e" s="0">
-        <f t="shared" ref="A793" si="743">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A793:A856" si="737">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794" t="e" s="0">
-        <f t="shared" ref="A794" si="744">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A794:A857" si="738">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795" t="e" s="0">
-        <f t="shared" ref="A795" si="745">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A795:A858" si="739">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796" t="e" s="0">
-        <f t="shared" ref="A796" si="746">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A796:A859" si="740">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797" t="e" s="0">
-        <f t="shared" ref="A797" si="747">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A797:A860" si="741">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A798" t="e" s="0">
-        <f t="shared" ref="A798" si="748">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A798:A861" si="742">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799" t="e" s="0">
-        <f t="shared" ref="A799" si="749">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A799:A862" si="743">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A800" t="e" s="0">
-        <f t="shared" ref="A800" si="750">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A800:A863" si="744">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801" t="e" s="0">
-        <f t="shared" ref="A801" si="751">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A801:A864" si="745">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A802" t="e" s="0">
-        <f t="shared" ref="A802" si="752">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A802:A865" si="746">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A803" t="e" s="0">
-        <f t="shared" ref="A803" si="753">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A803:A866" si="747">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A804" t="e" s="0">
-        <f t="shared" ref="A804" si="754">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A804:A867" si="748">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A805" t="e" s="0">
-        <f t="shared" ref="A805" si="755">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A805:A868" si="749">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A806" t="e" s="0">
-        <f t="shared" ref="A806" si="756">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A806:A869" si="750">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A807" t="e" s="0">
-        <f t="shared" ref="A807" si="757">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A807:A870" si="751">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A808" t="e" s="0">
-        <f t="shared" ref="A808" si="758">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A808:A871" si="752">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A809" t="e" s="0">
-        <f t="shared" ref="A809" si="759">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A809:A872" si="753">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810" t="e" s="0">
-        <f t="shared" ref="A810" si="760">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A810:A873" si="754">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811" t="e" s="0">
-        <f t="shared" ref="A811" si="761">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A811:A874" si="755">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812" t="e" s="0">
-        <f t="shared" ref="A812" si="762">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A812:A875" si="756">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813" t="e" s="0">
-        <f t="shared" ref="A813" si="763">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A813:A876" si="757">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814" t="e" s="0">
-        <f t="shared" ref="A814" si="764">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A814:A877" si="758">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815" t="e" s="0">
-        <f t="shared" ref="A815" si="765">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A815:A878" si="759">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816" t="e" s="0">
-        <f t="shared" ref="A816" si="766">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A816:A879" si="760">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817" t="e" s="0">
-        <f t="shared" ref="A817" si="767">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A817:A880" si="761">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818" t="e" s="0">
-        <f t="shared" ref="A818" si="768">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A818:A881" si="762">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819" t="e" s="0">
-        <f t="shared" ref="A819" si="769">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A819:A882" si="763">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820" t="e" s="0">
-        <f t="shared" ref="A820" si="770">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A820:A883" si="764">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A821" t="e" s="0">
-        <f t="shared" ref="A821" si="771">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A821:A884" si="765">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A822" t="e" s="0">
-        <f t="shared" ref="A822" si="772">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A822:A885" si="766">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A823" t="e" s="0">
-        <f t="shared" ref="A823" si="773">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A823:A886" si="767">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A824" t="e" s="0">
-        <f t="shared" ref="A824" si="774">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A824:A887" si="768">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A825" t="e" s="0">
-        <f t="shared" ref="A825" si="775">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A825:A888" si="769">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A826" t="e" s="0">
-        <f t="shared" ref="A826" si="776">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A826:A889" si="770">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827" t="e" s="0">
-        <f t="shared" ref="A827" si="777">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A827:A890" si="771">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A828" t="e" s="0">
-        <f t="shared" ref="A828" si="778">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A828:A891" si="772">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A829" t="e" s="0">
-        <f t="shared" ref="A829" si="779">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A829:A892" si="773">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830" t="e" s="0">
-        <f t="shared" ref="A830" si="780">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A830:A893" si="774">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A831" t="e" s="0">
-        <f t="shared" ref="A831" si="781">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A831:A894" si="775">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A832" t="e" s="0">
-        <f t="shared" ref="A832" si="782">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A832:A895" si="776">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A833" t="e" s="0">
-        <f t="shared" ref="A833" si="783">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A833:A896" si="777">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834" t="e" s="0">
-        <f t="shared" ref="A834" si="784">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A834:A897" si="778">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835" t="e" s="0">
-        <f t="shared" ref="A835" si="785">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A835:A898" si="779">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836" t="e" s="0">
-        <f t="shared" ref="A836" si="786">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A836:A899" si="780">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837" t="e" s="0">
-        <f t="shared" ref="A837" si="787">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A837:A900" si="781">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838" t="e" s="0">
-        <f t="shared" ref="A838" si="788">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A838:A901" si="782">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839" t="e" s="0">
-        <f t="shared" ref="A839" si="789">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A839:A902" si="783">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840" t="e" s="0">
-        <f t="shared" ref="A840" si="790">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A840:A903" si="784">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841" t="e" s="0">
-        <f t="shared" ref="A841" si="791">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A841:A904" si="785">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A842" t="e" s="0">
-        <f t="shared" ref="A842" si="792">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A842:A905" si="786">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843" t="e" s="0">
-        <f t="shared" ref="A843" si="793">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A843:A906" si="787">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A844" t="e" s="0">
-        <f t="shared" ref="A844" si="794">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A844:A907" si="788">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A845" t="e" s="0">
-        <f t="shared" ref="A845" si="795">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A845:A908" si="789">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846" t="e" s="0">
-        <f t="shared" ref="A846" si="796">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A846:A909" si="790">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847" t="e" s="0">
-        <f t="shared" ref="A847" si="797">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A847:A910" si="791">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A848" t="e" s="0">
-        <f t="shared" ref="A848" si="798">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A848:A911" si="792">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849" t="e" s="0">
-        <f t="shared" ref="A849" si="799">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A849:A912" si="793">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A850" t="e" s="0">
-        <f t="shared" ref="A850" si="800">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A850:A913" si="794">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851" t="e" s="0">
-        <f t="shared" ref="A851" si="801">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A851:A914" si="795">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852" t="e" s="0">
-        <f t="shared" ref="A852" si="802">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A852:A915" si="796">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A853" t="e" s="0">
-        <f t="shared" ref="A853" si="803">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A853:A916" si="797">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A854" t="e" s="0">
-        <f t="shared" ref="A854" si="804">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A854:A917" si="798">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A855" t="e" s="0">
-        <f t="shared" ref="A855" si="805">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A855:A918" si="799">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A856" t="e" s="0">
-        <f t="shared" ref="A856" si="806">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A856:A919" si="800">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A857" t="e" s="0">
-        <f t="shared" ref="A857" si="807">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A857:A920" si="801">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A858" t="e" s="0">
-        <f t="shared" ref="A858" si="808">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A858:A921" si="802">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859" t="e" s="0">
-        <f t="shared" ref="A859" si="809">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A859:A922" si="803">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A860" t="e" s="0">
-        <f t="shared" ref="A860" si="810">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A860:A923" si="804">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861" t="e" s="0">
-        <f t="shared" ref="A861" si="811">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A861:A924" si="805">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A862" t="e" s="0">
-        <f t="shared" ref="A862" si="812">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A862:A925" si="806">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A863" t="e" s="0">
-        <f t="shared" ref="A863" si="813">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A863:A926" si="807">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A864" t="e" s="0">
-        <f t="shared" ref="A864" si="814">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A864:A927" si="808">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A865" t="e" s="0">
-        <f t="shared" ref="A865" si="815">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A865:A928" si="809">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866" t="e" s="0">
-        <f t="shared" ref="A866" si="816">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A866:A929" si="810">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A867" t="e" s="0">
-        <f t="shared" ref="A867" si="817">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A867:A930" si="811">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A868" t="e" s="0">
-        <f t="shared" ref="A868" si="818">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A868:A931" si="812">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A869" t="e" s="0">
-        <f t="shared" ref="A869" si="819">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A869:A932" si="813">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A870" t="e" s="0">
-        <f t="shared" ref="A870" si="820">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A870:A933" si="814">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A871" t="e" s="0">
-        <f t="shared" ref="A871" si="821">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A871:A934" si="815">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A872" t="e" s="0">
-        <f t="shared" ref="A872" si="822">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A872:A935" si="816">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873" t="e" s="0">
-        <f t="shared" ref="A873" si="823">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A873:A936" si="817">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874" t="e" s="0">
-        <f t="shared" ref="A874" si="824">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A874:A937" si="818">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A875" t="e" s="0">
-        <f t="shared" ref="A875" si="825">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A875:A938" si="819">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A876" t="e" s="0">
-        <f t="shared" ref="A876" si="826">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A876:A939" si="820">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877" t="e" s="0">
-        <f t="shared" ref="A877" si="827">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A877:A940" si="821">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878" t="e" s="0">
-        <f t="shared" ref="A878" si="828">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A878:A940" si="822">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A879" t="e" s="0">
-        <f t="shared" ref="A879" si="829">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A879:A940" si="823">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A880" t="e" s="0">
-        <f t="shared" ref="A880" si="830">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A880:A940" si="824">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881" t="e" s="0">
-        <f t="shared" ref="A881" si="831">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A881:A940" si="825">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882" t="e" s="0">
-        <f t="shared" ref="A882" si="832">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A882:A940" si="826">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883" t="e" s="0">
-        <f t="shared" ref="A883" si="833">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A883:A940" si="827">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884" t="e" s="0">
-        <f t="shared" ref="A884" si="834">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A884:A940" si="828">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A885" t="e" s="0">
-        <f t="shared" ref="A885" si="835">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A885:A940" si="829">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886" t="e" s="0">
-        <f t="shared" ref="A886" si="836">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A886:A940" si="830">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A887" t="e" s="0">
-        <f t="shared" ref="A887" si="837">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A887:A940" si="831">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888" t="e" s="0">
-        <f t="shared" ref="A888" si="838">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A888:A940" si="832">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A889" t="e" s="0">
-        <f t="shared" ref="A889" si="839">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A889:A940" si="833">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890" t="e" s="0">
-        <f t="shared" ref="A890" si="840">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A890:A940" si="834">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891" t="e" s="0">
-        <f t="shared" ref="A891" si="841">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A891:A940" si="835">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A892" t="e" s="0">
-        <f t="shared" ref="A892" si="842">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A892:A940" si="836">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893" t="e" s="0">
-        <f t="shared" ref="A893" si="843">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A893:A940" si="837">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A894" t="e" s="0">
-        <f t="shared" ref="A894" si="844">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A894:A940" si="838">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895" t="e" s="0">
-        <f t="shared" ref="A895" si="845">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A895:A940" si="839">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A896" t="e" s="0">
-        <f t="shared" ref="A896" si="846">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A896:A940" si="840">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A897" t="e" s="0">
-        <f t="shared" ref="A897" si="847">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A897:A940" si="841">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898" t="e" s="0">
-        <f t="shared" ref="A898" si="848">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A898:A940" si="842">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899" t="e" s="0">
-        <f t="shared" ref="A899" si="849">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A899:A940" si="843">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A900" t="e" s="0">
-        <f t="shared" ref="A900" si="850">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A900:A940" si="844">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901" t="e" s="0">
-        <f t="shared" ref="A901" si="851">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A901:A940" si="845">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902" t="e" s="0">
-        <f t="shared" ref="A902" si="852">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A902:A940" si="846">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903" t="e" s="0">
-        <f t="shared" ref="A903" si="853">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A903:A940" si="847">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904" t="e" s="0">
-        <f t="shared" ref="A904" si="854">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A904:A940" si="848">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A905" t="e" s="0">
-        <f t="shared" ref="A905" si="855">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A905:A940" si="849">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906" t="e" s="0">
-        <f t="shared" ref="A906" si="856">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A906:A940" si="850">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907" t="e" s="0">
-        <f t="shared" ref="A907" si="857">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A907:A940" si="851">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A908" t="e" s="0">
-        <f t="shared" ref="A908" si="858">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A908:A940" si="852">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909" t="e" s="0">
-        <f t="shared" ref="A909" si="859">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A909:A940" si="853">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A910" t="e" s="0">
-        <f t="shared" ref="A910" si="860">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A910:A940" si="854">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A911" t="e" s="0">
-        <f t="shared" ref="A911" si="861">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A911:A940" si="855">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A912" t="e" s="0">
-        <f t="shared" ref="A912" si="862">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A912:A940" si="856">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913" t="e" s="0">
-        <f t="shared" ref="A913" si="863">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A913:A940" si="857">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A914" t="e" s="0">
-        <f t="shared" ref="A914" si="864">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A914:A940" si="858">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915" t="e" s="0">
-        <f t="shared" ref="A915" si="865">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A915:A940" si="859">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916" t="e" s="0">
-        <f t="shared" ref="A916" si="866">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A916:A940" si="860">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917" t="e" s="0">
-        <f t="shared" ref="A917" si="867">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A917:A940" si="861">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918" t="e" s="0">
-        <f t="shared" ref="A918" si="868">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A918:A940" si="862">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A919" t="e" s="0">
-        <f t="shared" ref="A919" si="869">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A919:A940" si="863">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920" t="e" s="0">
-        <f t="shared" ref="A920" si="870">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A920:A940" si="864">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921" t="e" s="0">
-        <f t="shared" ref="A921" si="871">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A921:A940" si="865">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922" t="e" s="0">
-        <f t="shared" ref="A922" si="872">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A922:A940" si="866">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923" t="e" s="0">
-        <f t="shared" ref="A923" si="873">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A923:A940" si="867">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924" t="e" s="0">
-        <f t="shared" ref="A924" si="874">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A924:A940" si="868">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925" t="e" s="0">
-        <f t="shared" ref="A925" si="875">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A925:A940" si="869">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A926" t="e" s="0">
-        <f t="shared" ref="A926" si="876">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A926:A940" si="870">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A927" t="e" s="0">
-        <f t="shared" ref="A927" si="877">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A927:A940" si="871">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928" t="e" s="0">
-        <f t="shared" ref="A928" si="878">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A928:A940" si="872">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A929" t="e" s="0">
-        <f t="shared" ref="A929" si="879">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A929:A940" si="873">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930" t="e" s="0">
-        <f t="shared" ref="A930" si="880">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A930:A940" si="874">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A931" t="e" s="0">
-        <f t="shared" ref="A931" si="881">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A931:A940" si="875">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A932" t="e" s="0">
-        <f t="shared" ref="A932" si="882">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A932:A940" si="876">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A933" t="e" s="0">
-        <f t="shared" ref="A933" si="883">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A933:A940" si="877">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A934" t="e" s="0">
-        <f t="shared" ref="A934" si="884">#REF!&amp;#REF!</f>
+        <f t="shared" ref="A934:A940" si="878">#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A935" t="e" s="0">
+        <f t="shared" ref="A935:A940" si="879">#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A936" t="e" s="0">
+        <f t="shared" ref="A936:A940" si="880">#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A937" t="e" s="0">
+        <f t="shared" ref="A937:A940" si="881">#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A938" t="e" s="0">
+        <f t="shared" ref="A938:A940" si="882">#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A939" t="e" s="0">
+        <f t="shared" ref="A939:A940" si="883">#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A940" t="e" s="0">
+        <f t="shared" ref="A940" si="884">#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
     </row>

--- a/Maven_project_goldloan/PacketIDList/Book2.xlsx
+++ b/Maven_project_goldloan/PacketIDList/Book2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>MAG0100000050227</t>
   </si>
@@ -568,37 +568,37 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s" s="0">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s" s="0">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s" s="0">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s" s="0">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
